--- a/MITRE_ARCCS_Template.xlsx
+++ b/MITRE_ARCCS_Template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{6C221508-FC53-CB4C-BF68-7D97E8F0CBA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{120759EA-46F2-43A5-B3A1-E07598F75100}"/>
+  <xr:revisionPtr revIDLastSave="291" documentId="8_{6C221508-FC53-CB4C-BF68-7D97E8F0CBA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66F17B7B-D153-478B-B771-FF5FCD053CF1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,10 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="207">
-  <si>
-    <t xml:space="preserve">5 = Positive Response, 1 = Negative [Binary] </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="208">
   <si>
     <t>Notes</t>
   </si>
@@ -575,21 +572,6 @@
   </si>
   <si>
     <t xml:space="preserve">Is the problem one that could benefit from AI? For example, does the AI handle volumes of data that a human couldn't, E.g. Anomaly Detection for network logs? Neural networks to identify complex malicious behavior in files? </t>
-  </si>
-  <si>
-    <t>5 </t>
-  </si>
-  <si>
-    <t>4 </t>
-  </si>
-  <si>
-    <t>3 </t>
-  </si>
-  <si>
-    <t>2 </t>
-  </si>
-  <si>
-    <t>1 </t>
   </si>
   <si>
     <t>Questions</t>
@@ -687,9 +669,6 @@
     <t>How appropriate is the use of AI in this context?</t>
   </si>
   <si>
-    <t xml:space="preserve">Placeholder? </t>
-  </si>
-  <si>
     <t>Standard</t>
   </si>
   <si>
@@ -735,12 +714,143 @@
   <si>
     <t>November 2021</t>
   </si>
+  <si>
+    <t>Dimensions / Modifiers</t>
+  </si>
+  <si>
+    <t>Categories / Features</t>
+  </si>
+  <si>
+    <t>Enter scores in this column</t>
+  </si>
+  <si>
+    <t>Score=1</t>
+  </si>
+  <si>
+    <t>Score=2</t>
+  </si>
+  <si>
+    <t>Score=3</t>
+  </si>
+  <si>
+    <r>
+      <t>Score each cell from</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (lowest) to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (highest). In Binary Cases, score </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Negative) or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (positive). Use </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for no answer</t>
+    </r>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="43">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -794,19 +904,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Inter"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF974706"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -909,36 +1006,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -1016,19 +1083,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1087,42 +1164,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFCFCBD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFCFCBD"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1231,32 +1284,197 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1264,83 +1482,22 @@
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1348,169 +1505,417 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="8" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="8" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="8" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="8" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="8" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="11" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="11" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="11" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1625,7 +2030,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'AI Assessment features map'!$D$30:$D$32</c:f>
+              <c:f>'AI Assessment features map'!$D$26:$D$28</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1642,18 +2047,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AI Assessment features map'!$E$30:$E$32</c:f>
+              <c:f>'AI Assessment features map'!$E$26:$E$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2434,13 +2839,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3457575</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2794,7 +3199,7 @@
   <dimension ref="B1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2804,63 +3209,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:2" ht="55.5">
-      <c r="B1" s="78" t="s">
-        <v>202</v>
+      <c r="B1" s="10" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="60.75">
-      <c r="B3" s="77" t="s">
-        <v>201</v>
+      <c r="B3" s="9" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="20.25">
-      <c r="B4" s="77"/>
+      <c r="B4" s="9"/>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="75">
-      <c r="B7" s="2" t="s">
-        <v>200</v>
+      <c r="B7" s="1" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="2"/>
+      <c r="B8" s="1"/>
     </row>
     <row r="9" spans="2:2" ht="15.75">
-      <c r="B9" s="87" t="s">
-        <v>206</v>
+      <c r="B9" s="12" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="33.75">
-      <c r="B11" s="75" t="s">
-        <v>199</v>
+      <c r="B11" s="7" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="2:2" ht="31.5">
-      <c r="B12" s="86" t="s">
-        <v>205</v>
+      <c r="B12" s="11" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="2:2" ht="15.75">
-      <c r="B13" s="86" t="s">
-        <v>204</v>
+      <c r="B13" s="11" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="75"/>
+      <c r="B14" s="7"/>
     </row>
     <row r="15" spans="2:2" ht="15.75">
-      <c r="B15" s="76" t="s">
-        <v>198</v>
+      <c r="B15" s="8" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="75"/>
+      <c r="B17" s="7"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="vfzDG/dDYvUXE+x53HzbHRX8iNeADkA6Yp0CxxKRk17+4E3pLg3fZZ101EjpqyOpsCzgvAt8S5BppgXuB1ZlnQ==" saltValue="wy1mVWCNQ+mcuwpOO9eVlQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -2869,470 +3275,499 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28.140625" customWidth="1"/>
-    <col min="2" max="2" width="62" customWidth="1"/>
-    <col min="3" max="3" width="54" customWidth="1"/>
-    <col min="4" max="4" width="46" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="52.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="36.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62" style="17" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="53.42578125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" style="14" customWidth="1"/>
+    <col min="6" max="6" width="38.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="36.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" t="s">
+    <row r="1" spans="1:7" s="15" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A1" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="D1" s="39"/>
+      <c r="E1" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="F1" s="41"/>
+      <c r="G1" s="38"/>
+    </row>
+    <row r="2" spans="1:7" ht="90">
+      <c r="E2" s="92" t="s">
+        <v>206</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="E2" s="1"/>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="82" t="s">
+      <c r="B3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="C3" s="37"/>
+      <c r="D3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="E3" s="96" t="s">
+        <v>207</v>
+      </c>
+      <c r="F3" s="127"/>
+      <c r="G3" s="128"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="13"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5">
-        <v>5</v>
-      </c>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="82"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="34" t="s">
+      <c r="E4" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="F4" s="127"/>
+      <c r="G4" s="128"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="13"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="6">
-        <v>5</v>
-      </c>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="82"/>
-      <c r="B5" s="83"/>
-      <c r="C5" s="34" t="s">
+      <c r="E5" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="F5" s="127"/>
+      <c r="G5" s="128"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="13"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="6">
-        <v>5</v>
-      </c>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="82"/>
-      <c r="B6" s="83"/>
-      <c r="C6" s="34" t="s">
+      <c r="E6" s="43" t="s">
+        <v>207</v>
+      </c>
+      <c r="F6" s="127"/>
+      <c r="G6" s="128"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="13"/>
+      <c r="B7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="7">
-        <v>5</v>
-      </c>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="82"/>
-      <c r="B7" s="84" t="s">
+      <c r="C7" s="116"/>
+      <c r="D7" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="E7" s="44" t="s">
+        <v>207</v>
+      </c>
+      <c r="F7" s="129"/>
+      <c r="G7" s="128"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="13"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9">
-        <v>5</v>
-      </c>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="82"/>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84" t="s">
+      <c r="D8" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="E8" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="F8" s="129"/>
+      <c r="G8" s="128"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="13"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="9">
-        <v>5</v>
-      </c>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="82"/>
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="35" t="s">
+      <c r="E9" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="F9" s="129"/>
+      <c r="G9" s="128"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="13"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="9">
-        <v>5</v>
-      </c>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="82"/>
-      <c r="B10" s="84"/>
-      <c r="C10" s="84"/>
-      <c r="D10" s="35" t="s">
+      <c r="E10" s="46" t="s">
+        <v>207</v>
+      </c>
+      <c r="F10" s="129"/>
+      <c r="G10" s="128"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="13"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="9">
-        <v>5</v>
-      </c>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="82"/>
-      <c r="B11" s="84"/>
-      <c r="C11" s="84" t="s">
+      <c r="D11" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="E11" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="F11" s="129"/>
+      <c r="G11" s="128"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="13"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="9">
-        <v>5</v>
-      </c>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="82"/>
-      <c r="B12" s="84"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="35" t="s">
+      <c r="E12" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="F12" s="129"/>
+      <c r="G12" s="128"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="13"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="9">
-        <v>5</v>
-      </c>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="82"/>
-      <c r="B13" s="84"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="35" t="s">
+      <c r="E13" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="F13" s="129"/>
+      <c r="G13" s="128"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="13"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="116"/>
+      <c r="D14" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="9">
-        <v>5</v>
-      </c>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="82"/>
-      <c r="B14" s="84"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="35" t="s">
+      <c r="E14" s="48" t="s">
+        <v>207</v>
+      </c>
+      <c r="F14" s="129"/>
+      <c r="G14" s="128"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="13"/>
+      <c r="B15" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="9">
-        <v>5</v>
-      </c>
-      <c r="F14" s="9"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="82"/>
-      <c r="B15" s="81" t="s">
+      <c r="D15" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="81" t="s">
+      <c r="E15" s="93" t="s">
+        <v>207</v>
+      </c>
+      <c r="F15" s="130"/>
+      <c r="G15" s="128"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="13"/>
+      <c r="B16" s="24"/>
+      <c r="D16" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="81"/>
-      <c r="E15" s="79">
-        <v>5</v>
-      </c>
-      <c r="F15" s="11"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="82"/>
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="11"/>
+      <c r="E16" s="94" t="s">
+        <v>207</v>
+      </c>
+      <c r="F16" s="130"/>
+      <c r="G16" s="128"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="82"/>
-      <c r="B17" s="81"/>
-      <c r="C17" s="33" t="s">
+      <c r="A17" s="13"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="10">
-        <v>5</v>
-      </c>
-      <c r="F17" s="11"/>
+      <c r="E17" s="49" t="s">
+        <v>207</v>
+      </c>
+      <c r="F17" s="130"/>
+      <c r="G17" s="128"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="82"/>
-      <c r="B18" s="81"/>
-      <c r="C18" s="33" t="s">
+      <c r="A18" s="13"/>
+      <c r="B18" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="13">
-        <v>5</v>
-      </c>
-      <c r="F18" s="13"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="82"/>
-      <c r="B19" s="85" t="s">
+      <c r="C18" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="85" t="s">
+      <c r="D18" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="36" t="s">
+      <c r="E18" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="F18" s="130"/>
+      <c r="G18" s="128"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A19" s="13"/>
+      <c r="B19" s="120"/>
+      <c r="C19" s="119"/>
+      <c r="D19" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="21">
-        <v>5</v>
-      </c>
-      <c r="F19" s="14"/>
-    </row>
-    <row r="20" spans="1:7" ht="15.75">
-      <c r="A20" s="82"/>
-      <c r="B20" s="85"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="36" t="s">
+      <c r="E19" s="51" t="s">
+        <v>207</v>
+      </c>
+      <c r="F19" s="130"/>
+      <c r="G19" s="128"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="13"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="21">
-        <v>5</v>
-      </c>
-      <c r="F20" s="20"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="82"/>
-      <c r="B21" s="85"/>
-      <c r="C21" s="85" t="s">
+      <c r="D20" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="36" t="s">
+      <c r="E20" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="F20" s="131"/>
+      <c r="G20" s="128"/>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1">
+      <c r="A21" s="13"/>
+      <c r="B21" s="120"/>
+      <c r="C21" s="120"/>
+      <c r="D21" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="21">
-        <v>5</v>
-      </c>
-      <c r="F21" s="15"/>
+      <c r="E21" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="F21" s="131" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="128"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="82"/>
-      <c r="B22" s="85"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="21">
-        <v>3</v>
-      </c>
-      <c r="F22" s="15" t="s">
+      <c r="A22" s="13"/>
+      <c r="B22" s="120"/>
+      <c r="C22" s="120"/>
+      <c r="D22" s="122" t="s">
         <v>31</v>
       </c>
+      <c r="E22" s="95" t="s">
+        <v>207</v>
+      </c>
+      <c r="F22" s="131"/>
+      <c r="G22" s="128"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="82"/>
-      <c r="B23" s="85"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="36" t="s">
+      <c r="A23" s="13"/>
+      <c r="B23" s="120"/>
+      <c r="C23" s="119"/>
+      <c r="D23" s="122" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="21">
-        <v>5</v>
-      </c>
-      <c r="F23" s="15"/>
+      <c r="E23" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="F23" s="132"/>
+      <c r="G23" s="133"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="82"/>
-      <c r="B24" s="85"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="36" t="s">
+      <c r="A24" s="13"/>
+      <c r="B24" s="120"/>
+      <c r="C24" s="120" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="21">
-        <v>5</v>
-      </c>
-      <c r="F24" s="22"/>
-      <c r="G24" s="23"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="82"/>
-      <c r="B25" s="85"/>
-      <c r="C25" s="85" t="s">
+      <c r="D24" s="122" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="36" t="s">
+      <c r="E24" s="95" t="s">
+        <v>207</v>
+      </c>
+      <c r="F24" s="131"/>
+      <c r="G24" s="128"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A25" s="13"/>
+      <c r="B25" s="119"/>
+      <c r="C25" s="119"/>
+      <c r="D25" s="123" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="21">
-        <v>5</v>
-      </c>
-      <c r="F25" s="15"/>
+      <c r="E25" s="51" t="s">
+        <v>207</v>
+      </c>
+      <c r="F25" s="131"/>
+      <c r="G25" s="128"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="82"/>
-      <c r="B26" s="85"/>
-      <c r="C26" s="85"/>
-      <c r="D26" s="36" t="s">
+      <c r="D26" s="103" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="21">
-        <v>5</v>
-      </c>
-      <c r="F26" s="15"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="82"/>
-      <c r="B27" s="85"/>
-      <c r="C27" s="85"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="16"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="82"/>
-      <c r="B28" s="85"/>
-      <c r="C28" s="85"/>
-      <c r="F28" s="15"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="82"/>
-      <c r="B29" s="85"/>
-      <c r="C29" s="85"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="15"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="D30" s="18" t="s">
+      <c r="E26" s="124" t="str">
+        <f>IFERROR(SUM(E3:E17)/(5*COUNT(E3:E17)), "NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="F26" s="134"/>
+      <c r="G26" s="128"/>
+    </row>
+    <row r="27" spans="1:7" s="3" customFormat="1">
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="19">
-        <f>SUM(E3:E18)/(5*COUNT(E3:E18))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="26" customFormat="1">
-      <c r="D31" s="18" t="s">
+      <c r="E27" s="125" t="str">
+        <f>IFERROR(SUM(E18:E25)/(5*COUNT(E22:E25,E18:E20)+3*COUNT(E21)), "NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="F27" s="135"/>
+      <c r="G27" s="135"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" thickBot="1">
+      <c r="D28" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="19">
-        <f>SUM(E19:E27)/(5*COUNT(E23:E26,E19:E21)+3*COUNT(E22))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="D32" s="18" t="s">
+      <c r="E28" s="126">
+        <f>(ROWS(E3:E17) - E31) / ROWS(E3:E17)</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="136"/>
+      <c r="G28" s="128"/>
+    </row>
+    <row r="29" spans="1:7" s="4" customFormat="1" hidden="1">
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E32" s="18">
-        <f>(16 - E35) / 16</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="4:7" s="29" customFormat="1" hidden="1">
-      <c r="D33" s="24" t="s">
+      <c r="E29" s="100" t="e">
+        <f>SUM(E3:E17)/COUNT(E3:E17)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" hidden="1">
+      <c r="D30" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="25">
-        <f>SUM(E3:E18)/COUNT(E3:E18)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="4:7" hidden="1">
-      <c r="D34" s="27" t="s">
+      <c r="E30" s="100" t="e">
+        <f>SUM(E18:E25)/COUNT(E18:E25)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F30" s="97"/>
+    </row>
+    <row r="31" spans="1:7" s="4" customFormat="1" hidden="1">
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="28">
-        <f>SUM(E19:E27)/COUNT(E19:E27)</f>
-        <v>4.75</v>
-      </c>
-    </row>
-    <row r="35" spans="4:7" s="29" customFormat="1" hidden="1">
-      <c r="D35" s="29" t="s">
+      <c r="E31" s="101">
+        <f>COUNTIF(E3:E17,"NA")</f>
+        <v>15</v>
+      </c>
+      <c r="F31" s="98"/>
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="1:7" hidden="1">
+      <c r="D32" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="32">
-        <f>COUNTIF(E3:E27,"N/A")</f>
-        <v>0</v>
-      </c>
-      <c r="F35" s="30"/>
-      <c r="G35" s="31"/>
-    </row>
-    <row r="36" spans="4:7" hidden="1">
-      <c r="D36" s="27" t="s">
+      <c r="E32" s="100" t="e">
+        <f>E26*E27</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" s="4" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="E36" s="28">
-        <f>E30*E31</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="4:7" s="29" customFormat="1" hidden="1">
-      <c r="D37" s="29" t="s">
+      <c r="E33" s="102" t="e">
+        <f>E28*E27</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F33" s="5"/>
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="2:7" s="4" customFormat="1">
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="99"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E37" s="29">
-        <f>E32*E31</f>
-        <v>1</v>
-      </c>
-      <c r="F37" s="30"/>
-      <c r="G37" s="31"/>
-    </row>
-    <row r="38" spans="4:7" s="29" customFormat="1">
-      <c r="F38" s="30"/>
-      <c r="G38" s="31"/>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
-        <v>45</v>
-      </c>
+      <c r="B59" s="39"/>
+      <c r="C59" s="39"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="F+vqUnOU0l1kf8f5qYfsJLdXw1Hr8X6MkWJ79eLIEwWpg3++bBpL1Tn5K3YBcOu+KSlTIAe60bP9bPF+y93kow==" saltValue="8veGPmCTZTsy+vOYvJyM4A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="13">
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="A3:A29"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="A3:A25"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="B7:B14"/>
     <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B19:B29"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="C24:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3340,540 +3775,563 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17654BF3-9449-E64A-9217-6B9F9B191A49}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" customWidth="1"/>
-    <col min="2" max="2" width="36.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="25.42578125" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="37.42578125" style="74" customWidth="1"/>
+    <col min="2" max="2" width="36.140625" style="64" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" style="64" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" style="61" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" style="61" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" style="61" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" style="61" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" s="53" customFormat="1">
+      <c r="A1" s="69" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" s="54" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>205</v>
+      </c>
+      <c r="F1" s="53" t="s">
+        <v>204</v>
+      </c>
+      <c r="G1" s="53" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="90">
+      <c r="A2" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>169</v>
+      </c>
+      <c r="F2" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="G2" s="60" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="150">
+      <c r="A3" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" s="57"/>
+      <c r="E3" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="F3" s="63"/>
+      <c r="G3" s="60" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="165">
+      <c r="A4" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="G4" s="60" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="60">
+      <c r="A5" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="64" t="s">
+        <v>187</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="57" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="F5" s="59" t="s">
+        <v>151</v>
+      </c>
+      <c r="G5" s="60" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="105">
+      <c r="A6" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="F6" s="59" t="s">
+        <v>145</v>
+      </c>
+      <c r="G6" s="60" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="60">
+      <c r="A7" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="57"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="60" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="120">
+      <c r="A8" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" s="58" t="s">
+        <v>137</v>
+      </c>
+      <c r="F8" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="G8" s="60" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="90">
+      <c r="A9" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="66" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="E9" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="F9" s="59" t="s">
+        <v>130</v>
+      </c>
+      <c r="G9" s="60" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="105">
+      <c r="A10" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="62" t="s">
+        <v>184</v>
+      </c>
+      <c r="C10" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="F10" s="59" t="s">
+        <v>125</v>
+      </c>
+      <c r="G10" s="60" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="90">
+      <c r="A11" s="71" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="64" t="s">
+        <v>183</v>
+      </c>
+      <c r="C11" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="F11" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" s="60" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="105">
+      <c r="A12" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="62" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="57"/>
+      <c r="E12" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12" s="59"/>
+      <c r="G12" s="60" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="90">
+      <c r="A13" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="55" t="s">
+        <v>182</v>
+      </c>
+      <c r="C13" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="57"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="60" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="180">
+      <c r="A14" s="72" t="s">
+        <v>181</v>
+      </c>
+      <c r="C14" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="59" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" s="60" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="D1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="90">
-      <c r="A2" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="C2" s="71" t="s">
-        <v>194</v>
-      </c>
-      <c r="D2" s="70" t="s">
-        <v>171</v>
-      </c>
-      <c r="E2" s="69" t="s">
-        <v>170</v>
-      </c>
-      <c r="F2" s="68" t="s">
-        <v>169</v>
-      </c>
-      <c r="G2" s="67" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="150">
-      <c r="A3" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="48" t="s">
-        <v>167</v>
-      </c>
-      <c r="C3" s="71" t="s">
-        <v>166</v>
-      </c>
-      <c r="D3" s="70"/>
-      <c r="E3" s="69" t="s">
-        <v>164</v>
-      </c>
-      <c r="F3" s="74"/>
-      <c r="G3" s="67" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="165">
-      <c r="A4" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>162</v>
-      </c>
-      <c r="C4" s="71" t="s">
-        <v>161</v>
-      </c>
-      <c r="D4" s="70" t="s">
-        <v>160</v>
-      </c>
-      <c r="E4" s="69" t="s">
-        <v>159</v>
-      </c>
-      <c r="F4" s="68" t="s">
-        <v>158</v>
-      </c>
-      <c r="G4" s="67" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="60">
-      <c r="A5" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C5" s="71" t="s">
-        <v>155</v>
-      </c>
-      <c r="D5" s="70" t="s">
-        <v>154</v>
-      </c>
-      <c r="E5" s="69" t="s">
-        <v>153</v>
-      </c>
-      <c r="F5" s="68" t="s">
-        <v>152</v>
-      </c>
-      <c r="G5" s="67" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="105">
-      <c r="A6" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="48" t="s">
-        <v>192</v>
-      </c>
-      <c r="C6" s="71" t="s">
-        <v>149</v>
-      </c>
-      <c r="D6" s="70" t="s">
-        <v>148</v>
-      </c>
-      <c r="E6" s="69" t="s">
-        <v>147</v>
-      </c>
-      <c r="F6" s="68" t="s">
-        <v>146</v>
-      </c>
-      <c r="G6" s="67" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="60">
-      <c r="A7" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="C7" s="71" t="s">
-        <v>143</v>
-      </c>
-      <c r="D7" s="70"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="67" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="120">
-      <c r="A8" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="48" t="s">
-        <v>191</v>
-      </c>
-      <c r="C8" s="71" t="s">
-        <v>140</v>
-      </c>
-      <c r="D8" s="70" t="s">
-        <v>139</v>
-      </c>
-      <c r="E8" s="69" t="s">
-        <v>138</v>
-      </c>
-      <c r="F8" s="68" t="s">
-        <v>137</v>
-      </c>
-      <c r="G8" s="67" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="90">
-      <c r="A9" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="54" t="s">
-        <v>135</v>
-      </c>
-      <c r="C9" s="71" t="s">
-        <v>134</v>
-      </c>
-      <c r="D9" s="70" t="s">
-        <v>133</v>
-      </c>
-      <c r="E9" s="69" t="s">
-        <v>132</v>
-      </c>
-      <c r="F9" s="68" t="s">
-        <v>131</v>
-      </c>
-      <c r="G9" s="67" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="105">
-      <c r="A10" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="C10" s="71" t="s">
-        <v>129</v>
-      </c>
-      <c r="D10" s="70" t="s">
-        <v>128</v>
-      </c>
-      <c r="E10" s="69" t="s">
-        <v>127</v>
-      </c>
-      <c r="F10" s="68" t="s">
-        <v>126</v>
-      </c>
-      <c r="G10" s="67" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="90">
-      <c r="A11" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C11" s="71" t="s">
-        <v>123</v>
-      </c>
-      <c r="D11" s="70" t="s">
-        <v>122</v>
-      </c>
-      <c r="E11" s="69" t="s">
-        <v>121</v>
-      </c>
-      <c r="F11" s="68" t="s">
-        <v>120</v>
-      </c>
-      <c r="G11" s="67" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="105">
-      <c r="A12" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="C12" s="71" t="s">
-        <v>117</v>
-      </c>
-      <c r="D12" s="70"/>
-      <c r="E12" s="69" t="s">
-        <v>116</v>
-      </c>
-      <c r="F12" s="68"/>
-      <c r="G12" s="67" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="90">
-      <c r="A13" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="46" t="s">
-        <v>188</v>
-      </c>
-      <c r="C13" s="71" t="s">
-        <v>113</v>
-      </c>
-      <c r="D13" s="70"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="67" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="180">
-      <c r="A14" s="37" t="s">
-        <v>187</v>
-      </c>
-      <c r="C14" s="71" t="s">
-        <v>109</v>
-      </c>
-      <c r="D14" s="70" t="s">
-        <v>108</v>
-      </c>
-      <c r="E14" s="69" t="s">
-        <v>107</v>
-      </c>
-      <c r="F14" s="68" t="s">
-        <v>106</v>
-      </c>
-      <c r="G14" s="67" t="s">
-        <v>186</v>
-      </c>
     </row>
     <row r="15" spans="1:7" ht="89.25" customHeight="1">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" s="60" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="90">
+      <c r="A16" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" s="71" t="s">
-        <v>103</v>
-      </c>
-      <c r="D15" s="70" t="s">
-        <v>102</v>
-      </c>
-      <c r="E15" s="69" t="s">
-        <v>101</v>
-      </c>
-      <c r="F15" s="68" t="s">
-        <v>100</v>
-      </c>
-      <c r="G15" s="67" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="90">
-      <c r="A16" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="51" t="s">
-        <v>185</v>
-      </c>
-      <c r="C16" s="71" t="s">
-        <v>97</v>
-      </c>
-      <c r="D16" s="70" t="s">
+      <c r="B16" s="67" t="s">
+        <v>179</v>
+      </c>
+      <c r="C16" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="E16" s="69" t="s">
+      <c r="D16" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="F16" s="68" t="s">
+      <c r="E16" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="G16" s="67" t="s">
+      <c r="F16" s="59" t="s">
         <v>93</v>
       </c>
+      <c r="G16" s="60" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="120">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="73" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="62" t="s">
+        <v>178</v>
+      </c>
+      <c r="C17" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="60" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="195">
+      <c r="A18" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="48" t="s">
-        <v>184</v>
-      </c>
-      <c r="C17" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="D17" s="70" t="s">
-        <v>90</v>
-      </c>
-      <c r="E17" s="69" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="G17" s="67" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="195">
-      <c r="A18" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" s="71" t="s">
+      <c r="B18" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="70" t="s">
+      <c r="C18" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="69" t="s">
+      <c r="D18" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="F18" s="68" t="s">
+      <c r="E18" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="G18" s="67" t="s">
+      <c r="F18" s="59" t="s">
         <v>81</v>
       </c>
+      <c r="G18" s="60" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="90">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" s="60" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="210">
+      <c r="A20" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" s="71" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" s="70" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" s="69" t="s">
-        <v>77</v>
-      </c>
-      <c r="F19" s="72" t="s">
-        <v>76</v>
-      </c>
-      <c r="G19" s="67" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="210">
-      <c r="A20" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="71" t="s">
+      <c r="B20" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="70" t="s">
+      <c r="C20" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="69" t="s">
+      <c r="D20" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="68" t="s">
+      <c r="E20" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="G20" s="67" t="s">
+      <c r="F20" s="59" t="s">
         <v>69</v>
       </c>
+      <c r="G20" s="60" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="120">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="60" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="75">
+      <c r="A22" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="71" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="70" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" s="69" t="s">
-        <v>65</v>
-      </c>
-      <c r="F21" s="68" t="s">
-        <v>64</v>
-      </c>
-      <c r="G21" s="67" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="75">
-      <c r="A22" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="71" t="s">
+      <c r="B22" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="70"/>
-      <c r="E22" s="69" t="s">
+      <c r="C22" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="68"/>
-      <c r="G22" s="67" t="s">
-        <v>58</v>
+      <c r="D22" s="57"/>
+      <c r="E22" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="59"/>
+      <c r="G22" s="60" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="166.5">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="C23" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="60" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="105.75" thickBot="1">
+      <c r="A24" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="46" t="s">
-        <v>183</v>
-      </c>
-      <c r="C23" s="71" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="70" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="69" t="s">
-        <v>54</v>
-      </c>
-      <c r="F23" s="68" t="s">
-        <v>53</v>
-      </c>
-      <c r="G23" s="67" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="105">
-      <c r="A24" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C24" s="71" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="70" t="s">
+      <c r="B24" s="64" t="s">
+        <v>175</v>
+      </c>
+      <c r="C24" s="105" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="69" t="s">
+      <c r="D24" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="68" t="s">
+      <c r="E24" s="107" t="s">
         <v>47</v>
       </c>
-      <c r="G24" s="67" t="s">
+      <c r="F24" s="108" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
+      <c r="G24" s="109" t="s">
         <v>45</v>
       </c>
     </row>
+    <row r="25" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A25" s="110" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="111"/>
+      <c r="C25" s="111"/>
+      <c r="D25" s="111"/>
+      <c r="E25" s="111"/>
+      <c r="F25" s="111"/>
+      <c r="G25" s="112"/>
+    </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="1">
+    <mergeCell ref="A25:G25"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3883,576 +4341,578 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" customWidth="1"/>
-    <col min="2" max="2" width="36.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="37.42578125" style="74" customWidth="1"/>
+    <col min="2" max="2" width="36.140625" style="64" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" style="61" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="61" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" style="61" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="61" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" style="61" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C1" s="66" t="s">
-        <v>178</v>
-      </c>
-      <c r="D1" s="65" t="s">
-        <v>177</v>
-      </c>
-      <c r="E1" s="64" t="s">
-        <v>176</v>
-      </c>
-      <c r="F1" s="63" t="s">
-        <v>175</v>
-      </c>
-      <c r="G1" s="62" t="s">
+    <row r="1" spans="1:7" s="53" customFormat="1">
+      <c r="A1" s="69" t="s">
         <v>174</v>
       </c>
+      <c r="B1" s="54" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" s="54" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>205</v>
+      </c>
+      <c r="F1" s="53" t="s">
+        <v>204</v>
+      </c>
+      <c r="G1" s="53" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="2" spans="1:7" ht="135">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="75" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="76" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="77" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" s="78" t="s">
+        <v>169</v>
+      </c>
+      <c r="F2" s="79" t="s">
+        <v>168</v>
+      </c>
+      <c r="G2" s="80" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="210">
+      <c r="A3" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="61" t="s">
-        <v>173</v>
-      </c>
-      <c r="C2" s="60" t="s">
-        <v>172</v>
-      </c>
-      <c r="D2" s="59" t="s">
-        <v>171</v>
-      </c>
-      <c r="E2" s="58" t="s">
-        <v>170</v>
-      </c>
-      <c r="F2" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="G2" s="57" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="210">
-      <c r="A3" s="38" t="s">
+      <c r="B3" s="62" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="81" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" s="82" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" s="83" t="s">
+        <v>163</v>
+      </c>
+      <c r="F3" s="84" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="85" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="135">
+      <c r="A4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="48" t="s">
-        <v>167</v>
-      </c>
-      <c r="C3" s="45" t="s">
-        <v>166</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>165</v>
-      </c>
-      <c r="E3" s="43" t="s">
-        <v>164</v>
-      </c>
-      <c r="F3" s="42" t="s">
+      <c r="B4" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="81" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" s="82" t="s">
+        <v>159</v>
+      </c>
+      <c r="E4" s="83" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" s="84" t="s">
+        <v>157</v>
+      </c>
+      <c r="G4" s="85" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="105">
+      <c r="A5" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="64" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="81" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="82" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" s="83" t="s">
+        <v>152</v>
+      </c>
+      <c r="F5" s="84" t="s">
+        <v>151</v>
+      </c>
+      <c r="G5" s="85" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="105">
+      <c r="A6" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="64" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="81" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="82" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" s="83" t="s">
+        <v>146</v>
+      </c>
+      <c r="F6" s="84" t="s">
+        <v>145</v>
+      </c>
+      <c r="G6" s="85" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="47.25">
+      <c r="A7" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="81" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="82" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="86" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="84" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="87" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="135">
+      <c r="A8" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" s="88" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" s="83" t="s">
+        <v>137</v>
+      </c>
+      <c r="F8" s="84" t="s">
+        <v>136</v>
+      </c>
+      <c r="G8" s="85" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="90">
+      <c r="A9" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="66" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="81" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" s="82" t="s">
+        <v>132</v>
+      </c>
+      <c r="E9" s="83" t="s">
+        <v>131</v>
+      </c>
+      <c r="F9" s="84" t="s">
+        <v>130</v>
+      </c>
+      <c r="G9" s="85" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="105">
+      <c r="A10" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="81" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="82" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10" s="83" t="s">
+        <v>126</v>
+      </c>
+      <c r="F10" s="84" t="s">
+        <v>125</v>
+      </c>
+      <c r="G10" s="85" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="78.75">
+      <c r="A11" s="71" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="64" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="81" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="88" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" s="83" t="s">
+        <v>120</v>
+      </c>
+      <c r="F11" s="89" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" s="85" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="75">
+      <c r="A12" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="62" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="81" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="82" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="83" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12" s="84" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="85" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="94.5">
+      <c r="A13" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="81" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="82" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="83" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="84" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="85" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="255">
+      <c r="A14" s="72" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="81" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="82" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="83" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="84" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" s="85" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="120">
+      <c r="A15" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="81" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="82" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="83" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="84" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" s="85" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="94.5">
+      <c r="A16" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="67" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="81" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="82" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="83" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="84" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" s="85" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="105">
+      <c r="A17" s="73" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="81" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="82" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="83" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="84" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="85" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="150">
+      <c r="A18" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="81" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="82" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="83" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="84" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="85" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="75">
+      <c r="A19" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="82" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="83" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="90" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" s="91" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="165">
+      <c r="A20" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="82" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="83" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" s="85" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="90">
+      <c r="A21" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="81" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="82" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="84" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="85" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="60">
+      <c r="A22" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="81" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="82" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="83" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="41" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="135">
-      <c r="A4" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>162</v>
-      </c>
-      <c r="C4" s="45" t="s">
-        <v>161</v>
-      </c>
-      <c r="D4" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="E4" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="F4" s="42" t="s">
-        <v>158</v>
-      </c>
-      <c r="G4" s="41" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="105">
-      <c r="A5" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="45" t="s">
-        <v>155</v>
-      </c>
-      <c r="D5" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="E5" s="43" t="s">
-        <v>153</v>
-      </c>
-      <c r="F5" s="42" t="s">
-        <v>152</v>
-      </c>
-      <c r="G5" s="41" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="105">
-      <c r="A6" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C6" s="45" t="s">
-        <v>149</v>
-      </c>
-      <c r="D6" s="44" t="s">
-        <v>148</v>
-      </c>
-      <c r="E6" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="F6" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="G6" s="41" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="47.25">
-      <c r="A7" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="C7" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="D7" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" s="55" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="135">
-      <c r="A8" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="48" t="s">
-        <v>141</v>
-      </c>
-      <c r="C8" s="45" t="s">
-        <v>140</v>
-      </c>
-      <c r="D8" s="53" t="s">
-        <v>139</v>
-      </c>
-      <c r="E8" s="43" t="s">
-        <v>138</v>
-      </c>
-      <c r="F8" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="G8" s="41" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="90">
-      <c r="A9" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="54" t="s">
-        <v>135</v>
-      </c>
-      <c r="C9" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="D9" s="44" t="s">
-        <v>133</v>
-      </c>
-      <c r="E9" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="F9" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="G9" s="41" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="105">
-      <c r="A10" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="D10" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="E10" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="F10" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="G10" s="41" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="78.75">
-      <c r="A11" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C11" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="D11" s="53" t="s">
-        <v>122</v>
-      </c>
-      <c r="E11" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="F11" s="52" t="s">
-        <v>120</v>
-      </c>
-      <c r="G11" s="41" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="75">
-      <c r="A12" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="C12" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="D12" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="F12" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="41" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="94.5">
-      <c r="A13" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="48" t="s">
-        <v>114</v>
-      </c>
-      <c r="C13" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="D13" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" s="41" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="255">
-      <c r="A14" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C14" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="D14" s="44" t="s">
-        <v>108</v>
-      </c>
-      <c r="E14" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="F14" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="G14" s="41" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="120">
-      <c r="A15" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" s="45" t="s">
-        <v>103</v>
-      </c>
-      <c r="D15" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="E15" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="F15" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="G15" s="41" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="94.5">
-      <c r="A16" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="51" t="s">
-        <v>98</v>
-      </c>
-      <c r="C16" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="D16" s="44" t="s">
-        <v>96</v>
-      </c>
-      <c r="E16" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="F16" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="G16" s="41" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="105">
-      <c r="A17" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="D17" s="44" t="s">
-        <v>90</v>
-      </c>
-      <c r="E17" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="G17" s="41" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="150">
-      <c r="A18" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" s="45" t="s">
-        <v>85</v>
-      </c>
-      <c r="D18" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="F18" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="G18" s="41" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="75">
-      <c r="A19" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="F19" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="G19" s="49" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="165">
-      <c r="A20" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="F20" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="G20" s="41" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="90">
-      <c r="A21" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="F21" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="G21" s="41" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="60">
-      <c r="A22" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="F22" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="G22" s="41" t="s">
+      <c r="F22" s="84" t="s">
         <v>58</v>
       </c>
+      <c r="G22" s="85" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="151.5">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="81" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="82" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="84" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="85" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="120">
+      <c r="A24" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="F23" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="G23" s="41" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="120">
-      <c r="A24" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="45" t="s">
+      <c r="B24" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="44" t="s">
+      <c r="C24" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="43" t="s">
+      <c r="D24" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="42" t="s">
+      <c r="E24" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="G24" s="41" t="s">
+      <c r="F24" s="84" t="s">
         <v>46</v>
       </c>
+      <c r="G24" s="85" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" t="s">
-        <v>45</v>
+      <c r="A25" s="74" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="NQnOX4L3cImtIc8v3EKCm9fUcfMOzIfsmwxo2ihLUIuOrHugkY/efmm88sCQ2Y8P8PprxQilS7E0ZeCkgwEyRg==" saltValue="G0tnlFDT+pplPxEwyDd39w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>